--- a/RA4ChecklistedeProjeto.xlsx
+++ b/RA4ChecklistedeProjeto.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27021"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo\IdeaProjects\TDEQualidade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pucpredu-my.sharepoint.com/personal/gustavo_farignoli_pucpr_edu_br/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F45F54C-B7FB-4C29-B3E6-796582229553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C18C4962-633D-4ACA-B1A0-1821DD48A1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD1FAF75-D539-4BCC-ACB7-4FA4AA43192E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>N</t>
   </si>
@@ -45,12 +45,15 @@
     <t>Descrição</t>
   </si>
   <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
     <t>Avaliador</t>
   </si>
   <si>
-    <t>Resultado</t>
-  </si>
-  <si>
     <t>Observações</t>
   </si>
   <si>
@@ -60,111 +63,107 @@
     <t>Responsável da área</t>
   </si>
   <si>
-    <t>O Titulo do projeto foi preenchido ?</t>
-  </si>
-  <si>
-    <t>O Titulo do projeto esta congruente com o titulo escrito em outras fontes ?</t>
+    <t>Uma estratégia de integração dos componentes do produto foi estabelecida?</t>
+  </si>
+  <si>
+    <t>ITP 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existem procedimentos e critérios definidos para a integração dos componentes?
+</t>
   </si>
   <si>
     <t>Conforme</t>
   </si>
   <si>
-    <t>O objetivo do Plano de Projeto está descrito e detalhado ?</t>
-  </si>
-  <si>
-    <t>O plano de projeto apresenta categorias bem separadas e descrições de fácil compreensão?</t>
-  </si>
-  <si>
-    <t>A Visão geral do produto está descrita e detalhada ?</t>
-  </si>
-  <si>
-    <t>A Visão geral do Projeto possui um resumo das condições que definem o projeto, objetivos a serem atingidos,
-descrição do cliente ?</t>
-  </si>
-  <si>
-    <t>O escopo e visão do  cliente são apresentados devidamente?</t>
-  </si>
-  <si>
-    <t>O Escopo e Não Escopo do projeto são definidos e detalhados ?</t>
-  </si>
-  <si>
-    <t>Os objetivos de projeto são descritos com as características do produto, serviço ou resultado esperado ?</t>
-  </si>
-  <si>
-    <t>Os produtos de trabalho estão bem detalhados, com datas de entrega, armazenameto e acesso ?</t>
-  </si>
-  <si>
-    <t>As premissas e restrições são descritas e detalhadas de maneira a impedir ambiguidades em sua descrição ?</t>
-  </si>
-  <si>
-    <t>O Ciclo de vida do projeto é apresentado com diagrama legível e com boas práticas</t>
-  </si>
-  <si>
-    <t>O planejamenteo abrange e detalha todas as fases do ciclo de desenvolvimento?</t>
-  </si>
-  <si>
-    <t>É apresentado um diagrama da WBS do projeto?</t>
-  </si>
-  <si>
-    <t>Todos as atividades mostradas na WBS estão descritas e detalhadas ?</t>
-  </si>
-  <si>
-    <t>Os recursos humanos e tecnológicos são devidamente descritos?</t>
-  </si>
-  <si>
-    <t>O Cronograma do plano descreve o tempo total de projeto e a destribuição da carga entre as tarefas anteriormente descritas ?</t>
-  </si>
-  <si>
-    <t>Há uma explicação de como foi calculado o tempo total de projeto ? Por exemplo tempo por função.</t>
-  </si>
-  <si>
-    <t>O plano possui uma sessão dedicada ao acompanhamento do progresso e cumprimento de datas estipuladas?</t>
-  </si>
-  <si>
-    <t>O plano possúi seções que indicam como deverão ser feitos os controles de projeto? (qualidade, monitoramento e controle)</t>
-  </si>
-  <si>
-    <t>O Plano de Projeto possui descrição das principais funções, com suas responsabilidades e a quem elas estão atribuidas ?</t>
-  </si>
-  <si>
-    <t>Caso haja a necessidade de treinamento, ele está descrito com o assunto do treinamento, cronograma e quem irá realizar o treinamento</t>
-  </si>
-  <si>
-    <t>Os equipamentos necessários para o projeto são descritos com quantidade e nome ?</t>
-  </si>
-  <si>
-    <t>O Plano de Projeto, possui descrição detalhada do orçamento, com informação de como será gasto e qual o valor individual de cada item e/ou grupo ?</t>
-  </si>
-  <si>
-    <t>O Plano de Projeto tem especificados métodos a serem utilizados para controlar a qualidade dos produtos de
-trabalho do projeto e como realizar uma ação corretiva quando requerido ?</t>
-  </si>
-  <si>
-    <t>O Plano de Projeto, possui planejamento de riscos ?</t>
-  </si>
-  <si>
-    <t>São apresentadas os documentos de suporte/base para a construção do plano?</t>
-  </si>
-  <si>
-    <t>Conformidades</t>
+    <t xml:space="preserve">A descrição das interfaces internas e externas está disponível e assegura a cobertura, completude e consistência da solução?
+</t>
+  </si>
+  <si>
+    <t>Não Conforme - 
+Prioridade Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi estabelecido um ambiente dedicado à integração dos componentes do produto?
+</t>
+  </si>
+  <si>
+    <t>ITP 2</t>
   </si>
   <si>
     <t>Não Conforme - 
 Prioridade Baixa</t>
   </si>
   <si>
-    <t>Não Conforme - 
-Prioridade Média</t>
+    <t xml:space="preserve">O ambiente é regularmente mantido e atualizado para atender às necessidades de integração?
+</t>
   </si>
   <si>
     <t>Não Conforme - Prioridade Alta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cada componente do produto é avaliado antes da integração?
+</t>
+  </si>
+  <si>
+    <t>ITP 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essa avaliação garante que os componentes atendam aos requisitos, projeto e descrição das interfaces internas e externas?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os componentes do produto são integrados conforme a estratégia estabelecida?
+</t>
+  </si>
+  <si>
+    <t>ITP 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os procedimentos e critérios são seguidos durante a integração?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ambiente de integração é utilizado como previsto?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O produto integrado passa por testes?
+</t>
+  </si>
+  <si>
+    <t>ITP 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os testes asseguram que o produto atenda aos requisitos e projeto?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A compatibilidade das interfaces é verificada durante os testes?
+</t>
+  </si>
+  <si>
+    <t>Os resultados dos testes são registrados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O produto integrado e o material de apoio são preparados?
+</t>
+  </si>
+  <si>
+    <t>ITP 6</t>
+  </si>
+  <si>
+    <t>O produto integrado e o material de apoio são entregues às partes interessadas?</t>
+  </si>
+  <si>
+    <t>Conformidades</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,7 +248,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -271,6 +284,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -311,27 +331,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -348,7 +347,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -415,7 +414,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -507,6 +506,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6592-4B50-B45A-082E1D5B9DA4}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -534,7 +553,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-BR"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -565,20 +584,20 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$31:$G$31</c:f>
+              <c:f>Planilha1!$D$31:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
@@ -643,7 +662,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1217,13 +1236,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>471487</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>471487</xdr:rowOff>
@@ -1571,37 +1590,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6F98661-ACB5-4277-9249-A0AADB10B0B9}">
-  <dimension ref="A3:G77"/>
+  <dimension ref="A3:H77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="A20:B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="2" width="27.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1610,240 +1630,206 @@
       <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.5">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="57.75">
       <c r="A5" s="6">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72.75">
       <c r="A6" s="6">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.75">
       <c r="A7" s="6">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="57.75">
       <c r="A8" s="6">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5">
       <c r="A9" s="6">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72.75">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="57.75">
       <c r="A11" s="6">
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="43.5">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="43.5">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="43.5">
       <c r="A14" s="6">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="43.5">
       <c r="A15" s="6">
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="43.5">
       <c r="A16" s="6">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="29.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="43.5">
       <c r="A18" s="6">
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="43.5">
       <c r="A19" s="6">
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>17</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>18</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>19</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>20</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>21</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>22</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>23</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>25</v>
-      </c>
-      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>26</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>33</v>
-      </c>
+    <row r="29" spans="1:8">
       <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
-        <v>27</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="7"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -1851,271 +1837,272 @@
         <f>(COUNTIF(D4:D30,"Conforme")/COUNTA(D4:D30))*100</f>
         <v>40</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="8"/>
+      <c r="F31" s="8">
         <f>(COUNTIF(D4:D30,"Não Conforme - 
 Prioridade Baixa")/COUNTA(D4:D30))*100</f>
         <v>20</v>
       </c>
-      <c r="F31" s="8">
+      <c r="G31" s="8">
         <f>(COUNTIF(D4:D30,"Não Conforme - 
 Prioridade Média")/COUNTA(D4:D30))*100</f>
         <v>20</v>
       </c>
-      <c r="G31" s="8">
+      <c r="H31" s="8">
         <f>(COUNTIF(D4:D30,"Não Conforme - Prioridade Alta")/COUNTA(D4:D30))*100</f>
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="6">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="6">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="6">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="6">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="6">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="6">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="6">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="6">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="6">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="6">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="6">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="6">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="6">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="6">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="6">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="6">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="6">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="6">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="6">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="6">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="6">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="6">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="6">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="6">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="6">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="6">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="6">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="6">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="6">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="6">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="6">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1">
       <c r="A72" s="6">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1">
       <c r="A73" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1">
       <c r="A74" s="6">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1">
       <c r="A75" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" s="6">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1">
       <c r="A77" s="6">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="7" priority="12" operator="equal">
+  <conditionalFormatting sqref="D1:E1048576">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
       <formula>"Conforme"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31:G31">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="D31:H31">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
       <formula>50</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="between">
       <formula>50</formula>
       <formula>60</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="greaterThan">
       <formula>70</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31:G31">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+  <conditionalFormatting sqref="F31:H31">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Conforme"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2155,7 +2142,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>D1:E1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="1" operator="equal" id="{B642D2D9-9F45-4AD6-8D31-37778984F0CF}">
@@ -2188,7 +2175,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E31:G31</xm:sqref>
+          <xm:sqref>F31:H31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2198,7 +2185,7 @@
           <x14:formula1>
             <xm:f>Planilha2!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D30</xm:sqref>
+          <xm:sqref>D4:E30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2214,34 +2201,34 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="60">
       <c r="A3" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="60">
       <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="60">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
